--- a/Timesheet_a1751414_Jialun Han.xlsx
+++ b/Timesheet_a1751414_Jialun Han.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahan/Documents/MyUni/MCI/code/Team27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E4C80-2C6D-C441-B252-ADFC23126D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D08F30-E720-6B44-A03E-ADE5B233DC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week3" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Week6" sheetId="4" r:id="rId4"/>
     <sheet name="MidBreak" sheetId="6" r:id="rId5"/>
     <sheet name="Week7" sheetId="5" r:id="rId6"/>
-    <sheet name="template" sheetId="7" r:id="rId7"/>
+    <sheet name="week8" sheetId="8" r:id="rId7"/>
+    <sheet name="week9" sheetId="9" r:id="rId8"/>
+    <sheet name="template" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Week3!$A$1:$H$17</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="83">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -274,6 +276,24 @@
   </si>
   <si>
     <t>Look into parsons puzzle js on github</t>
+  </si>
+  <si>
+    <t>Connect js-parson with H5P</t>
+  </si>
+  <si>
+    <t>Draw datagrams of js-parson</t>
+  </si>
+  <si>
+    <t>Paper research</t>
+  </si>
+  <si>
+    <t>Design the system and create a document about design</t>
+  </si>
+  <si>
+    <t>Literature Review of Parsons Puzzle</t>
+  </si>
+  <si>
+    <t>Work on the connection between H5P and Drupal</t>
   </si>
 </sst>
 </file>
@@ -572,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -656,6 +676,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1069,16 +1095,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1193,10 +1219,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <v>43907</v>
       </c>
       <c r="C7" s="6">
@@ -1255,8 +1281,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -1315,8 +1341,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="6">
         <v>0.63541666666666663</v>
       </c>
@@ -1437,10 +1463,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="37">
         <v>43909</v>
       </c>
       <c r="C11" s="6">
@@ -1499,8 +1525,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="6">
         <v>0.52083333333333337</v>
       </c>
@@ -1797,16 +1823,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2107,10 +2133,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="37">
         <v>43917</v>
       </c>
       <c r="C10" s="5">
@@ -2169,8 +2195,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="5">
         <v>0.375</v>
       </c>
@@ -2407,16 +2433,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2521,10 +2547,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <v>43921</v>
       </c>
       <c r="C7" s="6">
@@ -2583,8 +2609,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -2765,10 +2791,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="37">
         <v>43924</v>
       </c>
       <c r="C11" s="5">
@@ -2827,8 +2853,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -2947,10 +2973,10 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="42">
         <v>43926</v>
       </c>
       <c r="C14" s="6">
@@ -3011,8 +3037,8 @@
       <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="6">
         <v>0.41666666666666669</v>
       </c>
@@ -3128,16 +3154,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3190,10 +3216,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="46">
         <v>43927</v>
       </c>
       <c r="C6" s="5">
@@ -3250,8 +3276,8 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -3306,10 +3332,10 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="46">
         <v>43928</v>
       </c>
       <c r="C8" s="6">
@@ -3368,8 +3394,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -3425,10 +3451,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="46">
         <v>43929</v>
       </c>
       <c r="C10" s="5">
@@ -3487,8 +3513,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="5">
         <v>0.47916666666666669</v>
       </c>
@@ -3605,10 +3631,10 @@
       <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="37">
         <v>43931</v>
       </c>
       <c r="C13" s="5">
@@ -3665,8 +3691,8 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -3886,7 +3912,7 @@
   <dimension ref="A2:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3902,22 +3928,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="30">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5085,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CEDF29-3264-0B4F-93AF-E5B1D2A6DEFD}">
   <dimension ref="A2:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5102,22 +5128,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="30">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5785,11 +5811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
-  <dimension ref="A2:AT13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A00F32-F082-3D44-98BF-0BB8F2434DE2}">
+  <dimension ref="A2:AT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5805,22 +5831,1300 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43955</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43956</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43957</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43958</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43959</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43960</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+    </row>
+    <row r="14" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43961</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+    </row>
+    <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15">
+        <f>SUM(E6:E14)</f>
+        <v>26</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{133D1DA1-812D-054B-B89D-A7BA999ACFBB}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F05BAE-BECB-1B47-9C1B-175469369053}">
+  <dimension ref="A2:AT15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43962</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43963</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43964</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43965</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43966</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43967</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+    </row>
+    <row r="14" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43968</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+    </row>
+    <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15">
+        <f>SUM(E6:E14)</f>
+        <v>24</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{626B47F3-B8A9-184B-B7EE-CDB0B4DBF556}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
+  <dimension ref="A2:AT13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">

--- a/Timesheet_a1751414_Jialun Han.xlsx
+++ b/Timesheet_a1751414_Jialun Han.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahan/Documents/MyUni/MCI/code/Team27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D08F30-E720-6B44-A03E-ADE5B233DC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883B2EDC-521C-324C-A6E8-1CDBA74E061B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week3" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Week7" sheetId="5" r:id="rId6"/>
     <sheet name="week8" sheetId="8" r:id="rId7"/>
     <sheet name="week9" sheetId="9" r:id="rId8"/>
-    <sheet name="template" sheetId="7" r:id="rId9"/>
+    <sheet name="week10" sheetId="10" r:id="rId9"/>
+    <sheet name="template" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Week3!$A$1:$H$17</definedName>
@@ -1802,6 +1803,485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
+  <dimension ref="A2:AT13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43934</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43935</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43936</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43937</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="26">
+        <v>43938</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43939</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43940</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15">
+        <f>SUM(E6:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{A701FE38-3227-AE40-88C3-1821690D15E4}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07650CC-4E9E-DF40-8F16-16A37E275F26}">
   <dimension ref="A2:AT14"/>
@@ -6453,7 +6933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F05BAE-BECB-1B47-9C1B-175469369053}">
   <dimension ref="A2:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -7089,480 +7569,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
-  <dimension ref="A2:AT13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2A0E12-6403-8F47-9944-0498485D6D04}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="13" max="46" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="24">
-        <v>43934</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-    </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="24">
-        <v>43935</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-    </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24">
-        <v>43936</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-    </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24">
-        <v>43937</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-    </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="26">
-        <v>43938</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="24">
-        <v>43939</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-    </row>
-    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24">
-        <v>43940</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15">
-        <f>SUM(E6:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{A701FE38-3227-AE40-88C3-1821690D15E4}">
-      <formula1>0</formula1>
-      <formula2>0.999305555555556</formula2>
-    </dataValidation>
-  </dataValidations>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Timesheet_a1751414_Jialun Han.xlsx
+++ b/Timesheet_a1751414_Jialun Han.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahan/Documents/MyUni/MCI/code/Team27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883B2EDC-521C-324C-A6E8-1CDBA74E061B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197DA15E-6EA4-3B44-942D-8EC1ADCE03CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="87">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Work on the connection between H5P and Drupal</t>
+  </si>
+  <si>
+    <t>Meeting with the supervisor. Report the progress. Set the goal of next stage and the final: feedback functions.</t>
+  </si>
+  <si>
+    <t>Work on the system design.</t>
+  </si>
+  <si>
+    <t>Work on the re-construction of the H5P parsons library</t>
+  </si>
+  <si>
+    <t>Work on the fill in the blank function</t>
   </si>
 </sst>
 </file>
@@ -335,6 +347,7 @@
       <sz val="14"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,6 +690,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,16 +1115,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1220,10 +1239,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="39">
         <v>43907</v>
       </c>
       <c r="C7" s="6">
@@ -1282,8 +1301,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -1342,8 +1361,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="6">
         <v>0.63541666666666663</v>
       </c>
@@ -1464,10 +1483,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="39">
         <v>43909</v>
       </c>
       <c r="C11" s="6">
@@ -1526,8 +1545,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6">
         <v>0.52083333333333337</v>
       </c>
@@ -1824,16 +1843,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2303,16 +2322,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2613,10 +2632,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="39">
         <v>43917</v>
       </c>
       <c r="C10" s="5">
@@ -2675,8 +2694,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="5">
         <v>0.375</v>
       </c>
@@ -2913,16 +2932,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3027,10 +3046,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="39">
         <v>43921</v>
       </c>
       <c r="C7" s="6">
@@ -3089,8 +3108,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -3271,10 +3290,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="39">
         <v>43924</v>
       </c>
       <c r="C11" s="5">
@@ -3333,8 +3352,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -3453,10 +3472,10 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="44">
         <v>43926</v>
       </c>
       <c r="C14" s="6">
@@ -3517,8 +3536,8 @@
       <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="6">
         <v>0.41666666666666669</v>
       </c>
@@ -3634,16 +3653,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3696,10 +3715,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="48">
         <v>43927</v>
       </c>
       <c r="C6" s="5">
@@ -3756,8 +3775,8 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -3812,10 +3831,10 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="48">
         <v>43928</v>
       </c>
       <c r="C8" s="6">
@@ -3874,8 +3893,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -3931,10 +3950,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="48">
         <v>43929</v>
       </c>
       <c r="C10" s="5">
@@ -3993,8 +4012,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="5">
         <v>0.47916666666666669</v>
       </c>
@@ -4111,10 +4130,10 @@
       <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="39">
         <v>43931</v>
       </c>
       <c r="C13" s="5">
@@ -4171,8 +4190,8 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -4408,16 +4427,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5608,16 +5627,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6295,7 +6314,7 @@
   <dimension ref="A2:AT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6311,16 +6330,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6339,7 +6358,7 @@
         <v>34</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
@@ -6934,7 +6953,7 @@
   <dimension ref="A2:AT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6950,16 +6969,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6978,7 +6997,7 @@
         <v>34</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
@@ -7570,12 +7589,519 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2A0E12-6403-8F47-9944-0498485D6D04}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:AT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43969</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43970</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43971</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43972</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43973</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43974</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43975</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15">
+        <f>SUM(E6:E12)</f>
+        <v>27</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{20ED1F50-5585-4C4D-9FD8-7ED308CF05D1}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Timesheet_a1751414_Jialun Han.xlsx
+++ b/Timesheet_a1751414_Jialun Han.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahan/Documents/MyUni/MCI/code/Team27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197DA15E-6EA4-3B44-942D-8EC1ADCE03CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAFD552-2C83-BD48-9A74-EC70038FE33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="week8" sheetId="8" r:id="rId7"/>
     <sheet name="week9" sheetId="9" r:id="rId8"/>
     <sheet name="week10" sheetId="10" r:id="rId9"/>
-    <sheet name="template" sheetId="7" r:id="rId10"/>
+    <sheet name="week11" sheetId="11" r:id="rId10"/>
+    <sheet name="week12" sheetId="12" r:id="rId11"/>
+    <sheet name="template" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Week3!$A$1:$H$17</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="93">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -307,6 +309,24 @@
   </si>
   <si>
     <t>Work on the fill in the blank function</t>
+  </si>
+  <si>
+    <t>Debug fill in the blank function</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>debug fill in the blank function</t>
+  </si>
+  <si>
+    <t>Contruct system architecture and key components of the Poster</t>
+  </si>
+  <si>
+    <t>Fix code bugs for UI</t>
+  </si>
+  <si>
+    <t>Debug fill in the blank</t>
   </si>
 </sst>
 </file>
@@ -606,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,6 +710,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,7 +1124,7 @@
   </sheetPr>
   <dimension ref="A2:AT16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1115,16 +1141,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1239,10 +1265,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <v>43907</v>
       </c>
       <c r="C7" s="6">
@@ -1301,8 +1327,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -1361,8 +1387,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6">
         <v>0.63541666666666663</v>
       </c>
@@ -1483,10 +1509,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="41">
         <v>43909</v>
       </c>
       <c r="C11" s="6">
@@ -1545,8 +1571,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="6">
         <v>0.52083333333333337</v>
       </c>
@@ -1823,11 +1849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
-  <dimension ref="A2:AT13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0310FC0-D52B-D64E-81C3-7A6069283E54}">
+  <dimension ref="A2:AT15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1843,16 +1869,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1871,7 +1897,7 @@
         <v>34</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
@@ -1909,7 +1935,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="24">
-        <v>43934</v>
+        <v>43976</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1956,12 +1982,633 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
     </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43977</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43978</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43979</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43980</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43981</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+    </row>
+    <row r="14" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43982</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+    </row>
+    <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15">
+        <f>SUM(E6:E14)</f>
+        <v>27.5</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{E94530DE-9B9A-A042-8534-1DEA736889C4}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B676ADA4-5E24-D045-8E39-2BA081963C70}">
+  <dimension ref="A2:AT13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43983</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
     <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="24">
-        <v>43935</v>
+        <v>43984</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2008,6 +2655,517 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
     </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43985</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43986</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43987</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43988</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43989</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15">
+        <f>SUM(E6:E12)</f>
+        <v>29.5</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{1DC5C650-9D6D-7648-BBBC-19A217D58B24}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
+  <dimension ref="A2:AT13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43934</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43935</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
     <row r="8" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>13</v>
@@ -2322,16 +3480,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2632,10 +3790,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="41">
         <v>43917</v>
       </c>
       <c r="C10" s="5">
@@ -2694,8 +3852,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="5">
         <v>0.375</v>
       </c>
@@ -2932,16 +4090,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3046,10 +4204,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <v>43921</v>
       </c>
       <c r="C7" s="6">
@@ -3108,8 +4266,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -3290,10 +4448,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="41">
         <v>43924</v>
       </c>
       <c r="C11" s="5">
@@ -3352,8 +4510,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -3472,10 +4630,10 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="46">
         <v>43926</v>
       </c>
       <c r="C14" s="6">
@@ -3536,8 +4694,8 @@
       <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="6">
         <v>0.41666666666666669</v>
       </c>
@@ -3653,16 +4811,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3715,10 +4873,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="50">
         <v>43927</v>
       </c>
       <c r="C6" s="5">
@@ -3775,8 +4933,8 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -3831,10 +4989,10 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="50">
         <v>43928</v>
       </c>
       <c r="C8" s="6">
@@ -3893,8 +5051,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -3950,10 +5108,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="50">
         <v>43929</v>
       </c>
       <c r="C10" s="5">
@@ -4012,8 +5170,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5">
         <v>0.47916666666666669</v>
       </c>
@@ -4130,10 +5288,10 @@
       <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="41">
         <v>43931</v>
       </c>
       <c r="C13" s="5">
@@ -4190,8 +5348,8 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -4427,16 +5585,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5627,16 +6785,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6330,16 +7488,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6969,16 +8127,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7591,7 +8749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2A0E12-6403-8F47-9944-0498485D6D04}">
   <dimension ref="A2:AT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -7608,16 +8766,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/Timesheet_a1751414_Jialun Han.xlsx
+++ b/Timesheet_a1751414_Jialun Han.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicahan/Documents/MyUni/MCI/code/Team27/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAFD552-2C83-BD48-9A74-EC70038FE33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4552917B-87D5-A145-B0F6-132C5CC1CEE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="week10" sheetId="10" r:id="rId9"/>
     <sheet name="week11" sheetId="11" r:id="rId10"/>
     <sheet name="week12" sheetId="12" r:id="rId11"/>
-    <sheet name="template" sheetId="7" r:id="rId12"/>
+    <sheet name="week13" sheetId="13" r:id="rId12"/>
+    <sheet name="template" sheetId="7" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Week3!$A$1:$H$17</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="104">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -314,9 +315,6 @@
     <t>Debug fill in the blank function</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>debug fill in the blank function</t>
   </si>
   <si>
@@ -327,6 +325,42 @@
   </si>
   <si>
     <t>Debug fill in the blank</t>
+  </si>
+  <si>
+    <t>Group meeting: Communicate the progress of implementation.</t>
+  </si>
+  <si>
+    <t>Group meeting: Discuss the structure and content for poster and demo</t>
+  </si>
+  <si>
+    <t>Meeting with supervisor: report progress and prepare for the final</t>
+  </si>
+  <si>
+    <t>Final Presentation</t>
+  </si>
+  <si>
+    <t>Rehearse with Supervisor</t>
+  </si>
+  <si>
+    <t>Practice demo</t>
+  </si>
+  <si>
+    <t>Discuss the process and details of final presentation</t>
+  </si>
+  <si>
+    <t>Test and final debug of code</t>
+  </si>
+  <si>
+    <t>Make demo video version 1</t>
+  </si>
+  <si>
+    <t>Record and make demo video version 2</t>
+  </si>
+  <si>
+    <t>Final Presentation Preparation: write speech and modify demo video</t>
+  </si>
+  <si>
+    <t>Write final report</t>
   </si>
 </sst>
 </file>
@@ -626,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,6 +744,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,16 +1181,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1265,10 +1305,10 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="43">
         <v>43907</v>
       </c>
       <c r="C7" s="6">
@@ -1327,8 +1367,8 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="6">
         <v>0.60416666666666663</v>
       </c>
@@ -1387,8 +1427,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="6">
         <v>0.63541666666666663</v>
       </c>
@@ -1509,10 +1549,10 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="43">
         <v>43909</v>
       </c>
       <c r="C11" s="6">
@@ -1571,8 +1611,8 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="6">
         <v>0.52083333333333337</v>
       </c>
@@ -1852,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0310FC0-D52B-D64E-81C3-7A6069283E54}">
   <dimension ref="A2:AT15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1869,16 +1909,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1919,16 +1959,14 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -1936,6 +1974,1879 @@
       </c>
       <c r="B6" s="24">
         <v>43976</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43977</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43978</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43979</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43980</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43981</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+    </row>
+    <row r="14" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43982</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+    </row>
+    <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15">
+        <f>SUM(E6:E14)</f>
+        <v>27.5</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{E94530DE-9B9A-A042-8534-1DEA736889C4}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B676ADA4-5E24-D045-8E39-2BA081963C70}">
+  <dimension ref="A2:AT13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43983</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43984</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43985</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43986</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43987</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43988</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="24">
+        <v>43989</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15">
+        <f>SUM(E6:E12)</f>
+        <v>29.5</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{1DC5C650-9D6D-7648-BBBC-19A217D58B24}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4651DAE4-F4AF-6C41-ADD7-A17A59C293D1}">
+  <dimension ref="A2:AT18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43990</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43991</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43992</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43993</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+    </row>
+    <row r="14" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+    </row>
+    <row r="15" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="24">
+        <v>43994</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+    </row>
+    <row r="16" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="24">
+        <v>43995</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="E16" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+    </row>
+    <row r="17" spans="1:44" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="24">
+        <v>43996</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+    </row>
+    <row r="18" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15">
+        <f>SUM(E6:E17)</f>
+        <v>60.5</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D17" xr:uid="{7987FD0D-971A-A447-9F05-F9156AE07293}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
+  <dimension ref="A2:AT13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>43934</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1982,29 +3893,19 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="24">
-        <v>43977</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.875</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>43935</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2044,29 +3945,19 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="24">
-        <v>43978</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E8" s="7">
-        <v>10</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H8" s="16"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2106,25 +3997,17 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="24">
-        <v>43979</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>89</v>
-      </c>
+        <v>43937</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="16"/>
       <c r="I9" s="3"/>
@@ -2166,21 +4049,17 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="6">
-        <v>0.5625</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>60</v>
-      </c>
+    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="26">
+        <v>43938</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="16"/>
       <c r="I10" s="3"/>
@@ -2222,25 +4101,19 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>89</v>
-      </c>
+    <row r="11" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43939</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2280,15 +4153,15 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
     </row>
-    <row r="12" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>15</v>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="24">
-        <v>43980</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+        <v>43940</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -2332,19 +4205,576 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
     </row>
-    <row r="13" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15">
+        <f>SUM(E6:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{A701FE38-3227-AE40-88C3-1821690D15E4}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07650CC-4E9E-DF40-8F16-16A37E275F26}">
+  <dimension ref="A2:AT14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="13" max="46" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20">
+        <v>43913</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="20">
+        <v>43914</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="20">
+        <v>43915</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20">
+        <v>43916</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="43">
+        <v>43917</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="20">
+        <v>43918</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+    </row>
+    <row r="13" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="24">
-        <v>43981</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B13" s="20">
+        <v>43919</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2384,83 +4814,33 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
     </row>
-    <row r="14" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="24">
-        <v>43982</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-    </row>
-    <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
+    <row r="14" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15">
-        <f>SUM(E6:E14)</f>
-        <v>27.5</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="E14" s="15">
+        <f>SUM(E6:E13)</f>
+        <v>25</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D14" xr:uid="{E94530DE-9B9A-A042-8534-1DEA736889C4}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{C91E699C-F436-A442-8DC8-DAD37E4F73E6}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
@@ -2469,12 +4849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B676ADA4-5E24-D045-8E39-2BA081963C70}">
-  <dimension ref="A2:AT13"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E7E7BC-6A42-794B-A7FD-1C5CBB0B055E}">
+  <dimension ref="A2:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2483,23 +4863,22 @@
     <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
     <col min="13" max="46" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2518,7 +4897,7 @@
         <v>34</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
@@ -2555,8 +4934,8 @@
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24">
-        <v>43983</v>
+      <c r="B6" s="20">
+        <v>43920</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2603,19 +4982,29 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24">
-        <v>43984</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="43">
+        <v>43921</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2656,26 +5045,24 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24">
-        <v>43985</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.75</v>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="7">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2716,26 +5103,28 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24">
-        <v>43986</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.625</v>
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="20">
+        <v>43922</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.79166666666666663</v>
       </c>
       <c r="E9" s="7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2775,19 +5164,29 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="24">
-        <v>43987</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="20">
+        <v>43923</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2828,26 +5227,28 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="24">
-        <v>43988</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.75</v>
+      <c r="A11" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="43">
+        <v>43924</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.5</v>
       </c>
       <c r="E11" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2887,26 +5288,24 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
     </row>
-    <row r="12" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24">
-        <v>43989</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.95833333333333337</v>
+    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.66666666666666663</v>
       </c>
       <c r="E12" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2947,1054 +5346,28 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
     </row>
-    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15">
-        <f>SUM(E6:E12)</f>
-        <v>29.5</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{1DC5C650-9D6D-7648-BBBC-19A217D58B24}">
-      <formula1>0</formula1>
-      <formula2>0.999305555555556</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D53E5-41C4-1E42-A50A-F4E63F1C68BE}">
-  <dimension ref="A2:AT13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="13" max="46" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43925</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="24">
-        <v>43934</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-    </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="24">
-        <v>43935</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-    </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="24">
-        <v>43936</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-    </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24">
-        <v>43937</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-    </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="26">
-        <v>43938</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="24">
-        <v>43939</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-    </row>
-    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24">
-        <v>43940</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-    </row>
-    <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15">
-        <f>SUM(E6:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D12" xr:uid="{A701FE38-3227-AE40-88C3-1821690D15E4}">
-      <formula1>0</formula1>
-      <formula2>0.999305555555556</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07650CC-4E9E-DF40-8F16-16A37E275F26}">
-  <dimension ref="A2:AT14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="13" max="46" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="20">
-        <v>43913</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16" t="s">
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-    </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="20">
-        <v>43914</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-    </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="20">
-        <v>43915</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-    </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="20">
-        <v>43916</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-    </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="41">
-        <v>43917</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-    </row>
-    <row r="12" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="20">
-        <v>43918</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-    </row>
-    <row r="13" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="20">
-        <v>43919</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4035,605 +5408,11 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
     </row>
-    <row r="14" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="15">
-        <f>SUM(E6:E13)</f>
-        <v>25</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C6:D13" xr:uid="{C91E699C-F436-A442-8DC8-DAD37E4F73E6}">
-      <formula1>0</formula1>
-      <formula2>0.999305555555556</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E7E7BC-6A42-794B-A7FD-1C5CBB0B055E}">
-  <dimension ref="A2:AT16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="13" max="46" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="20">
-        <v>43920</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-    </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="41">
-        <v>43921</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-    </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="6">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-    </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="20">
-        <v>43922</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-    </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="20">
-        <v>43923</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="41">
-        <v>43924</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-    </row>
-    <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-    </row>
-    <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="24">
-        <v>43925</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-    </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="48">
         <v>43926</v>
       </c>
       <c r="C14" s="6">
@@ -4694,8 +5473,8 @@
       <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="6">
         <v>0.41666666666666669</v>
       </c>
@@ -4811,16 +5590,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4873,10 +5652,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="52">
         <v>43927</v>
       </c>
       <c r="C6" s="5">
@@ -4933,8 +5712,8 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -4989,10 +5768,10 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="52">
         <v>43928</v>
       </c>
       <c r="C8" s="6">
@@ -5051,8 +5830,8 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -5108,10 +5887,10 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="52">
         <v>43929</v>
       </c>
       <c r="C10" s="5">
@@ -5170,8 +5949,8 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="5">
         <v>0.47916666666666669</v>
       </c>
@@ -5288,10 +6067,10 @@
       <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="43">
         <v>43931</v>
       </c>
       <c r="C13" s="5">
@@ -5348,8 +6127,8 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -5569,7 +6348,7 @@
   <dimension ref="A2:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5585,16 +6364,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5635,16 +6414,14 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -5665,8 +6442,8 @@
       <c r="F6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -5703,8 +6480,6 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
@@ -5719,8 +6494,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5757,8 +6532,6 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -5779,8 +6552,8 @@
       <c r="F8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -5817,8 +6590,6 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
@@ -5835,7 +6606,8 @@
       <c r="F9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5872,8 +6644,6 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -5894,8 +6664,8 @@
       <c r="F10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5932,8 +6702,6 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
@@ -5950,8 +6718,8 @@
       <c r="F11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -5988,8 +6756,6 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -6002,8 +6768,8 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -6040,8 +6806,6 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
@@ -6062,8 +6826,8 @@
       <c r="F13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -6100,8 +6864,6 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -6114,8 +6876,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -6152,8 +6914,6 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -6174,8 +6934,8 @@
       <c r="F15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -6212,8 +6972,6 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
     </row>
     <row r="16" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -6234,8 +6992,8 @@
       <c r="F16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -6272,10 +7030,8 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-    </row>
-    <row r="17" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:44" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="24"/>
       <c r="C17" s="5">
@@ -6290,8 +7046,8 @@
       <c r="F17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="16"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -6328,10 +7084,8 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-    </row>
-    <row r="18" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:44" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>12</v>
       </c>
@@ -6350,8 +7104,8 @@
       <c r="F18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -6388,10 +7142,8 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-    </row>
-    <row r="19" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
@@ -6402,8 +7154,8 @@
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -6440,10 +7192,8 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-    </row>
-    <row r="20" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:44" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>14</v>
       </c>
@@ -6462,8 +7212,8 @@
       <c r="F20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -6500,10 +7250,8 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-    </row>
-    <row r="21" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>15</v>
       </c>
@@ -6514,8 +7262,8 @@
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="16"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -6552,10 +7300,8 @@
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-    </row>
-    <row r="22" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:44" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
@@ -6574,8 +7320,8 @@
       <c r="F22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -6612,10 +7358,8 @@
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-    </row>
-    <row r="23" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:44" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="24"/>
       <c r="C23" s="5">
@@ -6630,8 +7374,8 @@
       <c r="F23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -6668,10 +7412,8 @@
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-    </row>
-    <row r="24" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:44" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
@@ -6690,8 +7432,8 @@
       <c r="F24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="16"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -6728,10 +7470,8 @@
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-    </row>
-    <row r="25" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="21"/>
       <c r="C25" s="14"/>
@@ -6769,7 +7509,7 @@
   <dimension ref="A2:AT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6785,16 +7525,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6835,16 +7575,14 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -6865,8 +7603,8 @@
       <c r="F6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -6903,8 +7641,6 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
@@ -6925,8 +7661,8 @@
       <c r="F7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -6963,8 +7699,6 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
@@ -6981,8 +7715,8 @@
       <c r="F8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -7019,8 +7753,6 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -7041,8 +7773,8 @@
       <c r="F9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -7079,8 +7811,6 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
@@ -7097,8 +7827,8 @@
       <c r="F10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -7135,8 +7865,6 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
@@ -7157,8 +7885,8 @@
       <c r="F11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -7195,8 +7923,6 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
@@ -7213,8 +7939,8 @@
       <c r="F12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -7251,8 +7977,6 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
@@ -7273,8 +7997,8 @@
       <c r="F13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -7311,8 +8035,6 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -7333,8 +8055,8 @@
       <c r="F14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -7371,8 +8093,6 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -7393,8 +8113,8 @@
       <c r="F15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -7431,8 +8151,6 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
     </row>
     <row r="16" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
@@ -7472,7 +8190,7 @@
   <dimension ref="A2:AT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G5" sqref="G5:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7488,16 +8206,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7538,16 +8256,14 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -7568,8 +8284,8 @@
       <c r="F6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -7606,8 +8322,6 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
@@ -7624,8 +8338,8 @@
       <c r="F7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -7662,8 +8376,6 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
@@ -7680,8 +8392,8 @@
       <c r="F8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -7718,8 +8430,6 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
@@ -7740,8 +8450,8 @@
       <c r="F9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -7778,8 +8488,6 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -7800,8 +8508,8 @@
       <c r="F10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -7838,8 +8546,6 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
@@ -7860,8 +8566,8 @@
       <c r="F11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -7898,8 +8604,6 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
@@ -7920,8 +8624,8 @@
       <c r="F12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -7958,8 +8662,6 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -7980,8 +8682,8 @@
       <c r="F13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -8018,8 +8720,6 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -8032,8 +8732,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -8070,8 +8770,6 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -8111,7 +8809,7 @@
   <dimension ref="A2:AT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8127,16 +8825,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8177,16 +8875,14 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -8207,8 +8903,8 @@
       <c r="F6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -8245,8 +8941,6 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
@@ -8267,8 +8961,8 @@
       <c r="F7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -8305,8 +8999,6 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
@@ -8323,8 +9015,8 @@
       <c r="F8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -8361,8 +9053,6 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
@@ -8379,8 +9069,8 @@
       <c r="F9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -8417,8 +9107,6 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -8439,8 +9127,8 @@
       <c r="F10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -8477,8 +9165,6 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
@@ -8491,8 +9177,8 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -8529,8 +9215,6 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
@@ -8551,8 +9235,8 @@
       <c r="F12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -8589,8 +9273,6 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -8611,8 +9293,8 @@
       <c r="F13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -8649,8 +9331,6 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -8671,8 +9351,8 @@
       <c r="F14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -8709,8 +9389,6 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -8750,7 +9428,7 @@
   <dimension ref="A2:AT13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8766,16 +9444,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8816,16 +9494,14 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -8846,8 +9522,8 @@
       <c r="F6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -8884,8 +9560,6 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
@@ -8898,8 +9572,8 @@
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -8936,8 +9610,6 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -8958,8 +9630,8 @@
       <c r="F8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -8996,8 +9668,6 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
@@ -9010,8 +9680,8 @@
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -9048,8 +9718,6 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -9070,8 +9738,8 @@
       <c r="F10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -9108,8 +9776,6 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -9130,8 +9796,8 @@
       <c r="F11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -9168,8 +9834,6 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -9190,8 +9854,8 @@
       <c r="F12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -9228,8 +9892,6 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
